--- a/data_base/db_pieces.xlsx
+++ b/data_base/db_pieces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4869" documentId="8_{7CF55574-25A9-4A60-B67C-D4F168410614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A54D5FA-5EAB-43C5-898D-7F822846B59C}"/>
+  <xr:revisionPtr revIDLastSave="4883" documentId="8_{7CF55574-25A9-4A60-B67C-D4F168410614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9ABCD21-B4C4-4D85-A44E-25F63E77CEF4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86B71801-3DAA-4883-A7A1-8CF16C8C00ED}"/>
   </bookViews>
@@ -2667,9 +2667,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>Μαχαίρας</t>
-  </si>
-  <si>
     <t>Α. 1</t>
   </si>
   <si>
@@ -3721,6 +3718,9 @@
   </si>
   <si>
     <t>πατριάρχης, Καρύτζης</t>
+  </si>
+  <si>
+    <t>Μαχαιρά</t>
   </si>
 </sst>
 </file>
@@ -4156,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAACF16-2682-4732-B958-72E8A7E37046}">
   <dimension ref="A1:M555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M466" sqref="M466"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,43 +4179,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1018</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,7 +4223,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -4249,7 +4249,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -4275,7 +4275,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -4301,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -4327,7 +4327,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -4353,7 +4353,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -4379,7 +4379,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -4405,7 +4405,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -4417,7 +4417,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>6</v>
@@ -4434,7 +4434,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
@@ -4463,7 +4463,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
@@ -4475,7 +4475,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>71</v>
@@ -4498,7 +4498,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -4516,7 +4516,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J12" s="4">
         <v>2</v>
@@ -4530,13 +4530,13 @@
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>23</v>
@@ -4553,13 +4553,13 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>23</v>
@@ -4591,7 +4591,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         <v>17</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>29</v>
@@ -4669,7 +4669,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>17</v>
@@ -4698,7 +4698,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
@@ -4712,13 +4712,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>29</v>
@@ -4735,7 +4735,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>46</v>
@@ -4747,7 +4747,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>17</v>
@@ -4764,7 +4764,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>49</v>
@@ -4776,13 +4776,13 @@
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>310</v>
@@ -4811,7 +4811,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J23" s="4">
         <v>2</v>
@@ -4825,7 +4825,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>311</v>
@@ -4840,7 +4840,7 @@
         <v>17</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>312</v>
@@ -4866,7 +4866,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>71</v>
@@ -4889,13 +4889,13 @@
         <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>29</v>
@@ -4918,7 +4918,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>314</v>
@@ -4936,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J27" s="4">
         <v>2</v>
@@ -4950,7 +4950,7 @@
         <v>471</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>482</v>
@@ -4976,7 +4976,7 @@
         <v>471</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>485</v>
@@ -4988,7 +4988,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>17</v>
@@ -5020,7 +5020,7 @@
         <v>17</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J30" s="4">
         <v>2</v>
@@ -5089,7 +5089,7 @@
         <v>471</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1</v>
@@ -5162,13 +5162,13 @@
         <v>23</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>17</v>
@@ -5301,7 +5301,7 @@
         <v>471</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>492</v>
@@ -5368,7 +5368,7 @@
         <v>562</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>17</v>
@@ -5403,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>386</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>565</v>
@@ -5513,7 +5513,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>17</v>
@@ -5533,7 +5533,7 @@
         <v>400</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>47</v>
@@ -5542,7 +5542,7 @@
         <v>23</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>17</v>
@@ -5556,28 +5556,28 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>498</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B50" s="4">
         <v>114</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B51" s="4">
         <v>128</v>
@@ -5626,13 +5626,13 @@
         <v>23</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B52" s="4">
         <v>137</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B53" s="4">
         <v>158</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B54" s="4">
         <v>171</v>
@@ -5727,7 +5727,7 @@
         <v>501</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>23</v>
@@ -5756,7 +5756,7 @@
         <v>23</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>17</v>
@@ -5788,7 +5788,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J57" s="4">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J58" s="4">
         <v>2</v>
@@ -5840,7 +5840,7 @@
         <v>505</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>29</v>
@@ -5852,7 +5852,7 @@
         <v>17</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>849</v>
@@ -5887,7 +5887,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J60" s="4">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>17</v>
@@ -6128,7 +6128,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>77</v>
@@ -6160,7 +6160,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>51</v>
@@ -6192,7 +6192,7 @@
         <v>23</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>17</v>
@@ -6256,7 +6256,7 @@
         <v>17</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J72" s="4">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>849</v>
@@ -6299,7 +6299,7 @@
         <v>1005</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>593</v>
@@ -6308,13 +6308,13 @@
         <v>23</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>516</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>29</v>
@@ -6346,7 +6346,7 @@
         <v>17</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J75" s="4">
         <v>2</v>
@@ -6372,7 +6372,7 @@
         <v>23</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>103</v>
@@ -6404,7 +6404,7 @@
         <v>23</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>71</v>
@@ -6413,7 +6413,7 @@
         <v>17</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J77" s="4">
         <v>2</v>
@@ -6575,7 +6575,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>17</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -6633,7 +6633,7 @@
         <v>17</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>23</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J87" s="4">
         <v>0</v>
@@ -6746,13 +6746,13 @@
         <v>23</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J89" s="4">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J90" s="4">
         <v>2</v>
@@ -6807,7 +6807,7 @@
         <v>529</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>29</v>
@@ -6848,7 +6848,7 @@
         <v>17</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J92" s="4">
         <v>2</v>
@@ -6987,7 +6987,7 @@
         <v>534</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>23</v>
@@ -7019,7 +7019,7 @@
         <v>23</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>103</v>
@@ -7112,7 +7112,7 @@
         <v>23</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>17</v>
@@ -7135,7 +7135,7 @@
         <v>538</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>17</v>
@@ -7216,7 +7216,7 @@
         <v>23</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>71</v>
@@ -7280,7 +7280,7 @@
         <v>23</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>69</v>
@@ -7315,7 +7315,7 @@
         <v>23</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>71</v>
@@ -7350,7 +7350,7 @@
         <v>88</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>17</v>
@@ -7388,7 +7388,7 @@
         <v>17</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J110" s="4">
         <v>2</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B113" s="4">
         <v>133</v>
@@ -7478,7 +7478,7 @@
         <v>17</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J113" s="4">
         <v>2</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B114" s="4">
         <v>134</v>
@@ -7504,13 +7504,13 @@
         <v>23</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J114" s="4">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>548</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>29</v>
@@ -7542,7 +7542,7 @@
         <v>17</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J115" s="4">
         <v>2</v>
@@ -7574,7 +7574,7 @@
         <v>17</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J116" s="4">
         <v>2</v>
@@ -7603,7 +7603,7 @@
         <v>17</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J117" s="4">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>17</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J119" s="4">
         <v>2</v>
@@ -7690,7 +7690,7 @@
         <v>17</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J120" s="4">
         <v>2</v>
@@ -7809,7 +7809,7 @@
         <v>23</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>69</v>
@@ -7882,7 +7882,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J126" s="4">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>23</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>71</v>
@@ -7952,7 +7952,7 @@
         <v>17</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J128" s="4">
         <v>1</v>
@@ -7981,7 +7981,7 @@
         <v>23</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>69</v>
@@ -8051,7 +8051,7 @@
         <v>17</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J131" s="4">
         <v>2</v>
@@ -8109,7 +8109,7 @@
         <v>17</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J133" s="4">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>17</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J136" s="4">
         <v>2</v>
@@ -8254,7 +8254,7 @@
         <v>95</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>23</v>
@@ -8266,7 +8266,7 @@
         <v>17</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J138" s="4">
         <v>1</v>
@@ -8275,7 +8275,7 @@
         <v>48</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -8327,7 +8327,7 @@
         <v>23</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>103</v>
@@ -8336,7 +8336,7 @@
         <v>17</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J140" s="4">
         <v>1</v>
@@ -8429,7 +8429,7 @@
         <v>17</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J143" s="4">
         <v>2</v>
@@ -8455,7 +8455,7 @@
         <v>23</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>69</v>
@@ -8464,7 +8464,7 @@
         <v>17</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J144" s="4">
         <v>1</v>
@@ -8554,7 +8554,7 @@
         <v>23</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>71</v>
@@ -8580,7 +8580,7 @@
         <v>1034</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>119</v>
@@ -8641,7 +8641,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>69</v>
@@ -8650,7 +8650,7 @@
         <v>17</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J150" s="4">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>23</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J155" s="4">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>17</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J156" s="4">
         <v>1</v>
@@ -8897,7 +8897,7 @@
         <v>23</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>103</v>
@@ -8906,7 +8906,7 @@
         <v>17</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J158" s="4">
         <v>1</v>
@@ -8935,7 +8935,7 @@
         <v>23</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>69</v>
@@ -8944,7 +8944,7 @@
         <v>17</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J159" s="4">
         <v>1</v>
@@ -9005,7 +9005,7 @@
         <v>23</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>103</v>
@@ -9040,7 +9040,7 @@
         <v>23</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>71</v>
@@ -9075,7 +9075,7 @@
         <v>23</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>69</v>
@@ -9110,7 +9110,7 @@
         <v>23</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>69</v>
@@ -9244,7 +9244,7 @@
         <v>17</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J168" s="4">
         <v>2</v>
@@ -9331,7 +9331,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>71</v>
@@ -9340,7 +9340,7 @@
         <v>17</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J171" s="4">
         <v>1</v>
@@ -9369,7 +9369,7 @@
         <v>23</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>69</v>
@@ -9427,7 +9427,7 @@
         <v>172</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>29</v>
@@ -9456,7 +9456,7 @@
         <v>754</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>29</v>
@@ -9468,7 +9468,7 @@
         <v>17</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>3</v>
@@ -9497,7 +9497,7 @@
         <v>17</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>849</v>
@@ -9546,7 +9546,7 @@
         <v>176</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>29</v>
@@ -9648,7 +9648,7 @@
         <v>17</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J181" s="4">
         <v>2</v>
@@ -9680,7 +9680,7 @@
         <v>17</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J182" s="4">
         <v>2</v>
@@ -9700,7 +9700,7 @@
         <v>180</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>29</v>
@@ -9975,7 +9975,7 @@
         <v>23</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>69</v>
@@ -9984,7 +9984,7 @@
         <v>17</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J193" s="4">
         <v>1</v>
@@ -10013,7 +10013,7 @@
         <v>23</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>71</v>
@@ -10097,7 +10097,7 @@
         <v>23</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>69</v>
@@ -10193,7 +10193,7 @@
         <v>194</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>16</v>
@@ -10231,7 +10231,7 @@
         <v>23</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>71</v>
@@ -10266,7 +10266,7 @@
         <v>23</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>69</v>
@@ -10324,7 +10324,7 @@
         <v>198</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>29</v>
@@ -10437,7 +10437,7 @@
         <v>23</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>69</v>
@@ -10446,7 +10446,7 @@
         <v>17</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J208" s="4">
         <v>1</v>
@@ -10536,7 +10536,7 @@
         <v>23</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>69</v>
@@ -10577,7 +10577,7 @@
         <v>17</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J212" s="4">
         <v>2</v>
@@ -10635,7 +10635,7 @@
         <v>23</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>71</v>
@@ -10670,7 +10670,7 @@
         <v>23</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>69</v>
@@ -10734,7 +10734,7 @@
         <v>17</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J217" s="4">
         <v>2</v>
@@ -10748,7 +10748,7 @@
         <v>52</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>208</v>
@@ -10766,7 +10766,7 @@
         <v>17</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J218" s="4">
         <v>2</v>
@@ -10780,7 +10780,7 @@
         <v>52</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>209</v>
@@ -10815,7 +10815,7 @@
         <v>52</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>210</v>
@@ -10847,7 +10847,7 @@
         <v>52</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>86</v>
@@ -10876,7 +10876,7 @@
         <v>52</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>211</v>
@@ -10899,13 +10899,13 @@
         <v>52</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>29</v>
@@ -10922,7 +10922,7 @@
         <v>52</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>213</v>
@@ -10954,7 +10954,7 @@
         <v>52</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>214</v>
@@ -10977,7 +10977,7 @@
         <v>52</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>215</v>
@@ -11000,13 +11000,13 @@
         <v>52</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C227" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>1136</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>29</v>
@@ -11026,7 +11026,7 @@
         <v>52</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>216</v>
@@ -11052,7 +11052,7 @@
         <v>52</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>217</v>
@@ -11070,7 +11070,7 @@
         <v>17</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J229" s="4">
         <v>2</v>
@@ -11084,7 +11084,7 @@
         <v>52</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>218</v>
@@ -11096,7 +11096,7 @@
         <v>23</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>71</v>
@@ -11105,7 +11105,7 @@
         <v>17</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J230" s="4">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>17</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J231" s="4">
         <v>2</v>
@@ -11172,7 +11172,7 @@
         <v>17</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J232" s="4">
         <v>2</v>
@@ -11195,7 +11195,7 @@
         <v>267</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>16</v>
@@ -11213,7 +11213,7 @@
         <v>5</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -11227,7 +11227,7 @@
         <v>267</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>16</v>
@@ -11245,7 +11245,7 @@
         <v>293</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -11300,7 +11300,7 @@
         <v>17</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J236" s="4">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>17</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J242" s="4">
         <v>2</v>
@@ -11515,7 +11515,7 @@
         <v>17</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J243" s="4">
         <v>2</v>
@@ -11576,7 +11576,7 @@
         <v>17</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J245" s="4">
         <v>2</v>
@@ -11596,13 +11596,13 @@
         <v>277</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G246" s="4" t="s">
         <v>77</v>
@@ -11611,7 +11611,7 @@
         <v>17</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J246" s="4">
         <v>2</v>
@@ -11620,7 +11620,7 @@
         <v>48</v>
       </c>
       <c r="L246" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -11669,7 +11669,7 @@
         <v>23</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>17</v>
@@ -11698,7 +11698,7 @@
         <v>23</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>17</v>
@@ -11733,7 +11733,7 @@
         <v>17</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J250" s="4">
         <v>2</v>
@@ -11753,7 +11753,7 @@
         <v>281</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>23</v>
@@ -11791,7 +11791,7 @@
         <v>17</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J252" s="4">
         <v>0</v>
@@ -11843,7 +11843,7 @@
         <v>23</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>17</v>
@@ -11866,7 +11866,7 @@
         <v>285</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>29</v>
@@ -11924,7 +11924,7 @@
         <v>287</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>29</v>
@@ -11936,7 +11936,7 @@
         <v>17</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J257" s="4">
         <v>2</v>
@@ -11956,7 +11956,7 @@
         <v>288</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>29</v>
@@ -11997,7 +11997,7 @@
         <v>17</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J259" s="4">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>23</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G260" s="4" t="s">
         <v>51</v>
@@ -12055,13 +12055,13 @@
         <v>23</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J261" s="4">
         <v>0</v>
@@ -12087,7 +12087,7 @@
         <v>23</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>17</v>
@@ -12142,7 +12142,7 @@
         <v>23</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G264" s="4" t="s">
         <v>51</v>
@@ -12235,7 +12235,7 @@
         <v>17</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J267" s="4">
         <v>2</v>
@@ -12290,13 +12290,13 @@
         <v>23</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J269" s="4">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>23</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H270" s="4" t="s">
         <v>17</v>
@@ -12470,7 +12470,7 @@
         <v>23</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G275" s="4" t="s">
         <v>51</v>
@@ -12560,7 +12560,7 @@
         <v>17</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J278" s="4">
         <v>2</v>
@@ -12592,7 +12592,7 @@
         <v>17</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J279" s="4">
         <v>2</v>
@@ -12621,13 +12621,13 @@
         <v>23</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H280" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J280" s="4">
         <v>0</v>
@@ -12653,13 +12653,13 @@
         <v>23</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H281" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J281" s="4">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>681</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G282" s="4" t="s">
         <v>681</v>
@@ -12694,7 +12694,7 @@
         <v>17</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J282" s="4">
         <v>1</v>
@@ -12732,7 +12732,7 @@
         <v>17</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J283" s="4">
         <v>1</v>
@@ -12755,7 +12755,7 @@
         <v>645</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>29</v>
@@ -12802,7 +12802,7 @@
         <v>3</v>
       </c>
       <c r="M285" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12822,7 +12822,7 @@
         <v>23</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H286" s="4" t="s">
         <v>17</v>
@@ -12909,7 +12909,7 @@
         <v>23</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H289" s="4" t="s">
         <v>17</v>
@@ -12938,13 +12938,13 @@
         <v>23</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J290" s="4">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>649</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>29</v>
@@ -13005,7 +13005,7 @@
         <v>17</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J292" s="4">
         <v>2</v>
@@ -13072,7 +13072,7 @@
         <v>17</v>
       </c>
       <c r="I294" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J294" s="4">
         <v>1</v>
@@ -13107,7 +13107,7 @@
         <v>17</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J295" s="4">
         <v>2</v>
@@ -13165,7 +13165,7 @@
         <v>17</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J297" s="4">
         <v>0</v>
@@ -13249,7 +13249,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G300" s="4" t="s">
         <v>51</v>
@@ -13287,7 +13287,7 @@
         <v>17</v>
       </c>
       <c r="I301" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J301" s="4">
         <v>2</v>
@@ -13313,7 +13313,7 @@
         <v>23</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H302" s="4" t="s">
         <v>17</v>
@@ -13342,7 +13342,7 @@
         <v>23</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H303" s="4" t="s">
         <v>17</v>
@@ -13583,7 +13583,7 @@
         <v>17</v>
       </c>
       <c r="I311" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J311" s="4">
         <v>2</v>
@@ -13626,7 +13626,7 @@
         <v>702</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>714</v>
@@ -13638,7 +13638,7 @@
         <v>29</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G313" s="4" t="s">
         <v>30</v>
@@ -13647,7 +13647,7 @@
         <v>17</v>
       </c>
       <c r="I313" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J313" s="4">
         <v>2</v>
@@ -13682,7 +13682,7 @@
         <v>17</v>
       </c>
       <c r="I314" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J314" s="4">
         <v>2</v>
@@ -13708,7 +13708,7 @@
         <v>23</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G315" s="4" t="s">
         <v>51</v>
@@ -13769,7 +13769,7 @@
         <v>17</v>
       </c>
       <c r="I317" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J317" s="4">
         <v>0</v>
@@ -13847,13 +13847,13 @@
         <v>23</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J320" s="4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G322" s="4" t="s">
         <v>51</v>
@@ -13963,13 +13963,13 @@
         <v>23</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J324" s="4">
         <v>0</v>
@@ -13992,7 +13992,7 @@
         <v>23</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G325" s="4" t="s">
         <v>71</v>
@@ -14001,7 +14001,7 @@
         <v>17</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J325" s="4">
         <v>2</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>746</v>
@@ -14030,7 +14030,7 @@
         <v>23</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>17</v>
@@ -14111,7 +14111,7 @@
         <v>23</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H329" s="4" t="s">
         <v>17</v>
@@ -14143,7 +14143,7 @@
         <v>17</v>
       </c>
       <c r="I330" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J330" s="4">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>17</v>
       </c>
       <c r="I331" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J331" s="4">
         <v>0</v>
@@ -14201,7 +14201,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J332" s="4">
         <v>0</v>
@@ -14227,7 +14227,7 @@
         <v>23</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H333" s="4" t="s">
         <v>17</v>
@@ -14259,7 +14259,7 @@
         <v>17</v>
       </c>
       <c r="I334" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J334" s="4">
         <v>2</v>
@@ -14378,7 +14378,7 @@
         <v>17</v>
       </c>
       <c r="I338" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J338" s="4">
         <v>2</v>
@@ -14497,7 +14497,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J342" s="4">
         <v>2</v>
@@ -14511,7 +14511,7 @@
         <v>732</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>789</v>
@@ -14558,7 +14558,7 @@
         <v>17</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J344" s="4">
         <v>2</v>
@@ -14619,7 +14619,7 @@
         <v>17</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J346" s="4">
         <v>2</v>
@@ -14651,7 +14651,7 @@
         <v>17</v>
       </c>
       <c r="I347" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J347" s="4">
         <v>2</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>746</v>
@@ -14741,7 +14741,7 @@
         <v>17</v>
       </c>
       <c r="I350" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J350" s="4">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>17</v>
       </c>
       <c r="I351" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J351" s="4">
         <v>2</v>
@@ -14834,7 +14834,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J353" s="4">
         <v>2</v>
@@ -14866,7 +14866,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J354" s="4">
         <v>2</v>
@@ -15055,7 +15055,7 @@
         <v>17</v>
       </c>
       <c r="I360" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J360" s="4">
         <v>2</v>
@@ -15116,7 +15116,7 @@
         <v>23</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H362" s="4" t="s">
         <v>17</v>
@@ -15232,13 +15232,13 @@
         <v>23</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H366" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I366" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J366" s="4" t="s">
         <v>849</v>
@@ -15264,13 +15264,13 @@
         <v>23</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H367" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I367" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J367" s="4" t="s">
         <v>849</v>
@@ -15325,7 +15325,7 @@
         <v>23</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H369" s="4" t="s">
         <v>17</v>
@@ -15354,7 +15354,7 @@
         <v>23</v>
       </c>
       <c r="F370" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H370" s="4" t="s">
         <v>17</v>
@@ -15389,7 +15389,7 @@
         <v>17</v>
       </c>
       <c r="I371" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J371" s="4">
         <v>2</v>
@@ -15421,7 +15421,7 @@
         <v>17</v>
       </c>
       <c r="I372" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J372" s="4">
         <v>2</v>
@@ -15456,7 +15456,7 @@
         <v>17</v>
       </c>
       <c r="I373" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J373" s="4">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>17</v>
       </c>
       <c r="I374" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J374" s="4" t="s">
         <v>849</v>
@@ -15563,7 +15563,7 @@
         <v>833</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>98</v>
@@ -15595,7 +15595,7 @@
         <v>100</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E378" s="4" t="s">
         <v>88</v>
@@ -15627,7 +15627,7 @@
         <v>834</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E379" s="4" t="s">
         <v>23</v>
@@ -15653,7 +15653,7 @@
         <v>835</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E380" s="4" t="s">
         <v>23</v>
@@ -15685,7 +15685,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G381" s="4" t="s">
         <v>103</v>
@@ -15711,7 +15711,7 @@
         <v>837</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E382" s="4" t="s">
         <v>23</v>
@@ -15827,7 +15827,7 @@
         <v>23</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H386" s="4" t="s">
         <v>17</v>
@@ -15917,7 +15917,7 @@
         <v>17</v>
       </c>
       <c r="I389" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J389" s="4">
         <v>2</v>
@@ -15943,13 +15943,13 @@
         <v>23</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H390" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I390" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J390" s="4" t="s">
         <v>849</v>
@@ -16004,7 +16004,7 @@
         <v>17</v>
       </c>
       <c r="I392" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J392" s="4" t="s">
         <v>849</v>
@@ -16207,7 +16207,7 @@
         <v>23</v>
       </c>
       <c r="F399" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H399" s="4" t="s">
         <v>17</v>
@@ -16265,7 +16265,7 @@
         <v>17</v>
       </c>
       <c r="I401" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J401" s="4">
         <v>1</v>
@@ -16291,7 +16291,7 @@
         <v>23</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G402" s="4" t="s">
         <v>71</v>
@@ -16396,7 +16396,7 @@
         <v>17</v>
       </c>
       <c r="I405" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J405" s="4">
         <v>1</v>
@@ -16425,7 +16425,7 @@
         <v>23</v>
       </c>
       <c r="F406" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G406" s="4" t="s">
         <v>103</v>
@@ -16434,7 +16434,7 @@
         <v>17</v>
       </c>
       <c r="I406" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J406" s="4">
         <v>1</v>
@@ -16501,7 +16501,7 @@
         <v>17</v>
       </c>
       <c r="I408" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J408" s="4">
         <v>1</v>
@@ -16562,7 +16562,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G410" s="4" t="s">
         <v>71</v>
@@ -16597,7 +16597,7 @@
         <v>23</v>
       </c>
       <c r="F411" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G411" s="4" t="s">
         <v>71</v>
@@ -16629,7 +16629,7 @@
         <v>23</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G412" s="4" t="s">
         <v>71</v>
@@ -16670,7 +16670,7 @@
         <v>17</v>
       </c>
       <c r="I413" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J413" s="4">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>17</v>
       </c>
       <c r="I415" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J415" s="4">
         <v>1</v>
@@ -16769,7 +16769,7 @@
         <v>17</v>
       </c>
       <c r="I416" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J416" s="4">
         <v>1</v>
@@ -16789,10 +16789,10 @@
         <v>876</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E417" s="4" t="s">
         <v>29</v>
@@ -16801,7 +16801,7 @@
         <v>17</v>
       </c>
       <c r="I417" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J417" s="4" t="s">
         <v>849</v>
@@ -16809,16 +16809,16 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B418" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B418" s="5" t="s">
-        <v>878</v>
-      </c>
       <c r="C418" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="D418" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="D418" s="4" t="s">
-        <v>896</v>
       </c>
       <c r="E418" s="4" t="s">
         <v>29</v>
@@ -16830,10 +16830,10 @@
         <v>17</v>
       </c>
       <c r="I418" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J418" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K418" s="4" t="s">
         <v>3</v>
@@ -16844,16 +16844,16 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B419" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>828</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>98</v>
@@ -16865,10 +16865,10 @@
         <v>17</v>
       </c>
       <c r="I419" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J419" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K419" s="4" t="s">
         <v>3</v>
@@ -16882,16 +16882,16 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B420" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B420" s="5" t="s">
-        <v>878</v>
-      </c>
       <c r="C420" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D420" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="D420" s="4" t="s">
-        <v>899</v>
       </c>
       <c r="E420" s="4" t="s">
         <v>98</v>
@@ -16903,7 +16903,7 @@
         <v>17</v>
       </c>
       <c r="J420" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K420" s="4" t="s">
         <v>3</v>
@@ -16917,16 +16917,16 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B421" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B421" s="5" t="s">
-        <v>878</v>
-      </c>
       <c r="C421" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E421" s="4" t="s">
         <v>23</v>
@@ -16940,16 +16940,16 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>29</v>
@@ -16963,22 +16963,22 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I423" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M423" s="4" t="s">
         <v>567</v>
@@ -16986,16 +16986,16 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C424" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D424" s="4" t="s">
         <v>902</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>903</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>23</v>
@@ -17012,22 +17012,22 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F425" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H425" s="4" t="s">
         <v>17</v>
@@ -17038,16 +17038,16 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E426" s="4" t="s">
         <v>29</v>
@@ -17067,16 +17067,16 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>23</v>
@@ -17093,16 +17093,16 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C428" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D428" s="4" t="s">
         <v>909</v>
-      </c>
-      <c r="D428" s="4" t="s">
-        <v>910</v>
       </c>
       <c r="E428" s="4" t="s">
         <v>23</v>
@@ -17119,16 +17119,16 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C429" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D429" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="D429" s="4" t="s">
-        <v>913</v>
       </c>
       <c r="E429" s="4" t="s">
         <v>23</v>
@@ -17142,22 +17142,22 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>716</v>
       </c>
       <c r="D430" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E430" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F430" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="E430" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F430" s="4" t="s">
-        <v>1058</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>17</v>
@@ -17171,16 +17171,16 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>877</v>
+        <v>1228</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C431" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D431" s="4" t="s">
         <v>914</v>
-      </c>
-      <c r="D431" s="4" t="s">
-        <v>915</v>
       </c>
       <c r="E431" s="4" t="s">
         <v>23</v>
@@ -17197,28 +17197,28 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B432" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="B432" s="5" t="s">
-        <v>883</v>
-      </c>
       <c r="C432" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H432" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I432" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J432" s="4" t="s">
         <v>849</v>
@@ -17229,16 +17229,16 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E433" s="4" t="s">
         <v>98</v>
@@ -17261,16 +17261,16 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>716</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E434" s="4" t="s">
         <v>88</v>
@@ -17293,22 +17293,22 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F435" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G435" s="4" t="s">
         <v>51</v>
@@ -17325,16 +17325,16 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>23</v>
@@ -17351,16 +17351,16 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>23</v>
@@ -17377,16 +17377,16 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E438" s="4" t="s">
         <v>23</v>
@@ -17403,16 +17403,16 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E439" s="4" t="s">
         <v>29</v>
@@ -17424,33 +17424,33 @@
         <v>17</v>
       </c>
       <c r="I439" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J439" s="4">
         <v>2</v>
       </c>
       <c r="K439" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F440" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H440" s="4" t="s">
         <v>17</v>
@@ -17464,16 +17464,16 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>778</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>29</v>
@@ -17485,27 +17485,27 @@
         <v>17</v>
       </c>
       <c r="I441" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J441" s="4">
         <v>2</v>
       </c>
       <c r="K441" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>629</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E442" s="4" t="s">
         <v>29</v>
@@ -17517,27 +17517,27 @@
         <v>17</v>
       </c>
       <c r="I442" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J442" s="4" t="s">
         <v>746</v>
       </c>
       <c r="K442" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E443" s="4" t="s">
         <v>23</v>
@@ -17557,16 +17557,16 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>23</v>
@@ -17575,27 +17575,27 @@
         <v>17</v>
       </c>
       <c r="I444" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J444" s="4" t="s">
         <v>849</v>
       </c>
       <c r="K444" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E445" s="4" t="s">
         <v>23</v>
@@ -17607,27 +17607,27 @@
         <v>849</v>
       </c>
       <c r="K445" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G446" s="4" t="s">
         <v>103</v>
@@ -17644,22 +17644,22 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F447" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H447" s="4" t="s">
         <v>17</v>
@@ -17668,24 +17668,24 @@
         <v>849</v>
       </c>
       <c r="K447" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L447" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E448" s="4" t="s">
         <v>29</v>
@@ -17705,28 +17705,28 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F449" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H449" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I449" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J449" s="4" t="s">
         <v>849</v>
@@ -17737,16 +17737,16 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>29</v>
@@ -17761,21 +17761,21 @@
         <v>2</v>
       </c>
       <c r="K450" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>98</v>
@@ -17787,27 +17787,27 @@
         <v>17</v>
       </c>
       <c r="I451" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J451" s="4" t="s">
         <v>746</v>
       </c>
       <c r="K451" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E452" s="4" t="s">
         <v>88</v>
@@ -17830,16 +17830,16 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B453" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="B453" s="4" t="s">
-        <v>950</v>
-      </c>
       <c r="C453" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>29</v>
@@ -17854,21 +17854,21 @@
         <v>746</v>
       </c>
       <c r="K453" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>29</v>
@@ -17883,18 +17883,18 @@
         <v>746</v>
       </c>
       <c r="K454" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>28</v>
@@ -17906,33 +17906,33 @@
         <v>17</v>
       </c>
       <c r="I455" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J455" s="4" t="s">
         <v>849</v>
       </c>
       <c r="K455" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E456" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F456" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H456" s="4" t="s">
         <v>17</v>
@@ -17941,21 +17941,21 @@
         <v>849</v>
       </c>
       <c r="K456" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>792</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>23</v>
@@ -17972,22 +17972,22 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E458" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F458" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H458" s="4" t="s">
         <v>6</v>
@@ -17996,27 +17996,27 @@
         <v>849</v>
       </c>
       <c r="K458" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E459" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F459" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H459" s="4" t="s">
         <v>17</v>
@@ -18025,21 +18025,21 @@
         <v>849</v>
       </c>
       <c r="K459" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E460" s="4" t="s">
         <v>29</v>
@@ -18054,21 +18054,21 @@
         <v>746</v>
       </c>
       <c r="K460" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>98</v>
@@ -18083,7 +18083,7 @@
         <v>746</v>
       </c>
       <c r="K461" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L461" s="4" t="s">
         <v>98</v>
@@ -18091,16 +18091,16 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>29</v>
@@ -18112,39 +18112,39 @@
         <v>17</v>
       </c>
       <c r="I462" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J462" s="4" t="s">
         <v>746</v>
       </c>
       <c r="K462" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F463" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H463" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I463" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J463" s="4" t="s">
         <v>849</v>
@@ -18155,48 +18155,48 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F464" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H464" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I464" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J464" s="4" t="s">
         <v>849</v>
       </c>
       <c r="K464" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B465" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="B465" s="5" t="s">
-        <v>977</v>
-      </c>
       <c r="C465" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D465" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="D465" s="4" t="s">
-        <v>995</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>29</v>
@@ -18205,7 +18205,7 @@
         <v>17</v>
       </c>
       <c r="I465" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J465" s="4" t="s">
         <v>849</v>
@@ -18213,16 +18213,16 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B466" s="5" t="s">
         <v>978</v>
-      </c>
-      <c r="B466" s="5" t="s">
-        <v>979</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>512</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>16</v>
@@ -18237,7 +18237,7 @@
         <v>48</v>
       </c>
       <c r="L466" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M466" s="4" t="s">
         <v>63</v>
@@ -18245,16 +18245,16 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E467" s="4" t="s">
         <v>29</v>
@@ -18266,7 +18266,7 @@
         <v>17</v>
       </c>
       <c r="I467" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J467" s="4" t="s">
         <v>746</v>
@@ -18277,16 +18277,16 @@
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E468" s="4" t="s">
         <v>23</v>
@@ -18306,16 +18306,16 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>23</v>
@@ -18324,7 +18324,7 @@
         <v>17</v>
       </c>
       <c r="I469" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J469" s="4" t="s">
         <v>849</v>
@@ -18335,22 +18335,22 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E470" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F470" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H470" s="4" t="s">
         <v>17</v>
@@ -18359,33 +18359,33 @@
         <v>746</v>
       </c>
       <c r="K470" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E471" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F471" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H471" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I471" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J471" s="4" t="s">
         <v>849</v>
@@ -18396,16 +18396,16 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>23</v>
@@ -18414,7 +18414,7 @@
         <v>17</v>
       </c>
       <c r="I472" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J472" s="4" t="s">
         <v>849</v>
@@ -18422,16 +18422,16 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>23</v>
@@ -18440,7 +18440,7 @@
         <v>17</v>
       </c>
       <c r="I473" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J473" s="4" t="s">
         <v>849</v>
@@ -18466,7 +18466,7 @@
         <v>23</v>
       </c>
       <c r="F474" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G474" s="4" t="s">
         <v>71</v>
@@ -18501,7 +18501,7 @@
         <v>23</v>
       </c>
       <c r="F475" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G475" s="4" t="s">
         <v>69</v>
@@ -18521,16 +18521,16 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B476" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="B476" s="5" t="s">
-        <v>985</v>
-      </c>
       <c r="C476" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E476" s="4" t="s">
         <v>29</v>
@@ -18542,7 +18542,7 @@
         <v>17</v>
       </c>
       <c r="I476" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J476" s="4" t="s">
         <v>746</v>
@@ -18553,16 +18553,16 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E477" s="4" t="s">
         <v>29</v>
@@ -18582,16 +18582,16 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>23</v>
@@ -18603,7 +18603,7 @@
         <v>17</v>
       </c>
       <c r="I478" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J478" s="4" t="s">
         <v>746</v>
@@ -18614,16 +18614,16 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E479" s="4" t="s">
         <v>23</v>
@@ -18643,22 +18643,22 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F480" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H480" s="4" t="s">
         <v>17</v>
@@ -18684,7 +18684,7 @@
         <v>16</v>
       </c>
       <c r="F481" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H481" s="4" t="s">
         <v>6</v>
@@ -18713,7 +18713,7 @@
         <v>361</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E482" s="4" t="s">
         <v>16</v>
@@ -19161,13 +19161,13 @@
         <v>393</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E496" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F496" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H496" s="4" t="s">
         <v>6</v>
@@ -19342,7 +19342,7 @@
         <v>3</v>
       </c>
       <c r="M501" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -19362,7 +19362,7 @@
         <v>29</v>
       </c>
       <c r="F502" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G502" s="4" t="s">
         <v>30</v>
@@ -19371,7 +19371,7 @@
         <v>17</v>
       </c>
       <c r="I502" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J502" s="4">
         <v>1</v>
@@ -19400,7 +19400,7 @@
         <v>16</v>
       </c>
       <c r="F503" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H503" s="4" t="s">
         <v>6</v>
@@ -19761,7 +19761,7 @@
         <v>17</v>
       </c>
       <c r="I514" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J514" s="4">
         <v>1</v>
@@ -19828,7 +19828,7 @@
         <v>17</v>
       </c>
       <c r="I516" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J516" s="4">
         <v>1</v>
@@ -20087,7 +20087,7 @@
         <v>23</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G524" s="4" t="s">
         <v>71</v>
@@ -20128,7 +20128,7 @@
         <v>17</v>
       </c>
       <c r="I525" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J525" s="4">
         <v>1</v>
@@ -20157,7 +20157,7 @@
         <v>23</v>
       </c>
       <c r="F526" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G526" s="4" t="s">
         <v>71</v>
@@ -20180,7 +20180,7 @@
         <v>395</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>432</v>
@@ -20230,7 +20230,7 @@
         <v>17</v>
       </c>
       <c r="I528" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J528" s="4">
         <v>1</v>
@@ -20291,7 +20291,7 @@
         <v>23</v>
       </c>
       <c r="F530" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G530" s="4" t="s">
         <v>71</v>
@@ -20390,7 +20390,7 @@
         <v>23</v>
       </c>
       <c r="F533" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G533" s="4" t="s">
         <v>71</v>
@@ -20445,7 +20445,7 @@
         <v>439</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>15</v>
@@ -20489,7 +20489,7 @@
         <v>23</v>
       </c>
       <c r="F536" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G536" s="4" t="s">
         <v>77</v>
@@ -20512,19 +20512,19 @@
         <v>52</v>
       </c>
       <c r="B537" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E537" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="C537" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D537" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E537" s="4" t="s">
-        <v>1084</v>
-      </c>
       <c r="G537" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>17</v>
@@ -20538,25 +20538,25 @@
         <v>52</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I538" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M538" s="4" t="s">
         <v>63</v>
@@ -20567,19 +20567,19 @@
         <v>52</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>17</v>
@@ -20593,25 +20593,25 @@
         <v>52</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E540" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I540" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M540" s="4" t="s">
         <v>63</v>
@@ -20622,19 +20622,19 @@
         <v>818</v>
       </c>
       <c r="B541" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C541" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="C541" s="4" t="s">
-        <v>1091</v>
-      </c>
       <c r="D541" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>17</v>
@@ -20648,19 +20648,19 @@
         <v>353</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E542" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G542" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H542" s="4" t="s">
         <v>17</v>
@@ -20674,28 +20674,28 @@
         <v>353</v>
       </c>
       <c r="B543" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D543" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="C543" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D543" s="4" t="s">
+      <c r="E543" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G543" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H543" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I543" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="E543" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G543" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H543" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I543" s="4" t="s">
+      <c r="M543" s="4" t="s">
         <v>1226</v>
-      </c>
-      <c r="M543" s="4" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
@@ -20703,19 +20703,19 @@
         <v>33</v>
       </c>
       <c r="B544" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D544" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="C544" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D544" s="4" t="s">
-        <v>1095</v>
-      </c>
       <c r="E544" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G544" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H544" s="4" t="s">
         <v>17</v>
@@ -20726,28 +20726,28 @@
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B545" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="B545" s="4" t="s">
+      <c r="C545" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D545" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="C545" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D545" s="4" t="s">
-        <v>1098</v>
-      </c>
       <c r="E545" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G545" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H545" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I545" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M545" s="4" t="s">
         <v>63</v>
@@ -20755,16 +20755,16 @@
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>643</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E546" s="4" t="s">
         <v>29</v>
@@ -20776,7 +20776,7 @@
         <v>17</v>
       </c>
       <c r="I546" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J546" s="4" t="s">
         <v>746</v>
@@ -20787,22 +20787,22 @@
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B547" s="4" t="s">
         <v>1105</v>
-      </c>
-      <c r="B547" s="4" t="s">
-        <v>1106</v>
       </c>
       <c r="C547" s="4" t="s">
         <v>639</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E547" s="4" t="s">
         <v>562</v>
       </c>
       <c r="G547" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H547" s="4" t="s">
         <v>17</v>
@@ -20814,22 +20814,22 @@
         <v>24</v>
       </c>
       <c r="L547" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C548" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D548" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="D548" s="4" t="s">
-        <v>1112</v>
-      </c>
       <c r="E548" s="4" t="s">
         <v>23</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>17</v>
       </c>
       <c r="I548" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J548" s="4" t="s">
         <v>849</v>
@@ -20848,16 +20848,16 @@
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C549" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D549" s="4" t="s">
         <v>1113</v>
-      </c>
-      <c r="D549" s="4" t="s">
-        <v>1114</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>23</v>
@@ -20874,28 +20874,28 @@
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>713</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E550" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F550" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H550" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I550" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J550" s="4" t="s">
         <v>849</v>
@@ -20909,13 +20909,13 @@
         <v>353</v>
       </c>
       <c r="B551" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D551" s="4" t="s">
         <v>1144</v>
-      </c>
-      <c r="C551" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D551" s="4" t="s">
-        <v>1145</v>
       </c>
       <c r="E551" s="4" t="s">
         <v>29</v>
@@ -20933,7 +20933,7 @@
         <v>48</v>
       </c>
       <c r="M551" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.25">
@@ -20941,13 +20941,13 @@
         <v>353</v>
       </c>
       <c r="B552" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C552" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="C552" s="4" t="s">
+      <c r="D552" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="D552" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="E552" s="4" t="s">
         <v>98</v>
@@ -20959,10 +20959,10 @@
         <v>17</v>
       </c>
       <c r="I552" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J552" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K552" s="4" t="s">
         <v>48</v>
@@ -20971,21 +20971,21 @@
         <v>98</v>
       </c>
       <c r="M552" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C553" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="B553" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C553" s="4" t="s">
+      <c r="D553" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="D553" s="4" t="s">
-        <v>1196</v>
       </c>
       <c r="E553" s="4" t="s">
         <v>29</v>
@@ -20997,7 +20997,7 @@
         <v>17</v>
       </c>
       <c r="I553" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J553" s="4" t="s">
         <v>746</v>
@@ -21006,21 +21006,21 @@
         <v>3</v>
       </c>
       <c r="M553" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C554" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D554" s="4" t="s">
         <v>1198</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="E554" s="4" t="s">
         <v>23</v>
@@ -21032,7 +21032,7 @@
         <v>17</v>
       </c>
       <c r="I554" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J554" s="4" t="s">
         <v>746</v>
@@ -21041,7 +21041,7 @@
         <v>104</v>
       </c>
       <c r="M554" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
@@ -21049,13 +21049,13 @@
         <v>52</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>519</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E555" s="4" t="s">
         <v>16</v>
@@ -21064,13 +21064,13 @@
         <v>17</v>
       </c>
       <c r="J555" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L555" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M555" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
